--- a/xls_data/2016-2.xlsx
+++ b/xls_data/2016-2.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="VRKT" sheetId="1" r:id="rId1"/>
-    <sheet name="TSRT" sheetId="2" r:id="rId2"/>
-    <sheet name="KZBG" sheetId="3" r:id="rId3"/>
-    <sheet name="AGMS" sheetId="4" r:id="rId4"/>
-    <sheet name="TBL01" sheetId="5" r:id="rId5"/>
+    <sheet name="KZBG" sheetId="2" r:id="rId2"/>
+    <sheet name="AGMS" sheetId="3" r:id="rId3"/>
+    <sheet name="TBL01" sheetId="4" r:id="rId4"/>
+    <sheet name="TSRT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
